--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyMobile/ModifyMobileByRealName.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/modifyMobile/ModifyMobileByRealName.xlsx
@@ -128,29 +128,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先实名后修改手机号码</t>
+    <t>修改手机号码</t>
     <rPh sb="0" eb="1">
-      <t>xian</t>
+      <t>xiu'g</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh sb="2" eb="3">
+      <t>shou'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hao'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改手机号码-实名</t>
+    <rPh sb="7" eb="8">
       <t>shi'm</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>hou</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xiu'g</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shou'j</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hao'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先实名后修改手机号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +503,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
